--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Myl9</t>
+  </si>
+  <si>
+    <t>Cd69</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Myl9</t>
-  </si>
-  <si>
-    <t>Cd69</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.908374</v>
+        <v>19.1942595</v>
       </c>
       <c r="H2">
-        <v>9.816748</v>
+        <v>38.388519</v>
       </c>
       <c r="I2">
-        <v>0.06587775388176191</v>
+        <v>0.1801900926266317</v>
       </c>
       <c r="J2">
-        <v>0.0614069384453108</v>
+        <v>0.1763598244906265</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N2">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O2">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P2">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q2">
-        <v>0.356669450897</v>
+        <v>0.151673038569</v>
       </c>
       <c r="R2">
-        <v>1.426677803588</v>
+        <v>0.606692154276</v>
       </c>
       <c r="S2">
-        <v>0.0001600396860128622</v>
+        <v>1.863932519530443E-05</v>
       </c>
       <c r="T2">
-        <v>9.963325263677195E-05</v>
+        <v>1.216516465349232E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.908374</v>
+        <v>19.1942595</v>
       </c>
       <c r="H3">
-        <v>9.816748</v>
+        <v>38.388519</v>
       </c>
       <c r="I3">
-        <v>0.06587775388176191</v>
+        <v>0.1801900926266317</v>
       </c>
       <c r="J3">
-        <v>0.0614069384453108</v>
+        <v>0.1763598244906265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N3">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O3">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P3">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q3">
-        <v>0.1589805977353333</v>
+        <v>0.6216956671185001</v>
       </c>
       <c r="R3">
-        <v>0.953883586412</v>
+        <v>3.730174002711001</v>
       </c>
       <c r="S3">
-        <v>7.133553176396779E-05</v>
+        <v>7.640110477948776E-05</v>
       </c>
       <c r="T3">
-        <v>6.661526808088084E-05</v>
+        <v>7.479605696122471E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.908374</v>
+        <v>19.1942595</v>
       </c>
       <c r="H4">
-        <v>9.816748</v>
+        <v>38.388519</v>
       </c>
       <c r="I4">
-        <v>0.06587775388176191</v>
+        <v>0.1801900926266317</v>
       </c>
       <c r="J4">
-        <v>0.0614069384453108</v>
+        <v>0.1763598244906265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N4">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O4">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P4">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q4">
-        <v>53.35541281371734</v>
+        <v>298.261095522741</v>
       </c>
       <c r="R4">
-        <v>320.132476882304</v>
+        <v>1789.566573136446</v>
       </c>
       <c r="S4">
-        <v>0.02394088838368128</v>
+        <v>0.0366537494402937</v>
       </c>
       <c r="T4">
-        <v>0.02235672263648754</v>
+        <v>0.03588372103900154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.908374</v>
+        <v>19.1942595</v>
       </c>
       <c r="H5">
-        <v>9.816748</v>
+        <v>38.388519</v>
       </c>
       <c r="I5">
-        <v>0.06587775388176191</v>
+        <v>0.1801900926266317</v>
       </c>
       <c r="J5">
-        <v>0.0614069384453108</v>
+        <v>0.1763598244906265</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N5">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O5">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P5">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q5">
-        <v>0.443007749557</v>
+        <v>0.9655192384987501</v>
       </c>
       <c r="R5">
-        <v>1.772030998228</v>
+        <v>3.862076953995</v>
       </c>
       <c r="S5">
-        <v>0.0001987801897865408</v>
+        <v>0.000118654094613617</v>
       </c>
       <c r="T5">
-        <v>0.0001237512854567597</v>
+        <v>7.74409257127686E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.908374</v>
+        <v>19.1942595</v>
       </c>
       <c r="H6">
-        <v>9.816748</v>
+        <v>38.388519</v>
       </c>
       <c r="I6">
-        <v>0.06587775388176191</v>
+        <v>0.1801900926266317</v>
       </c>
       <c r="J6">
-        <v>0.0614069384453108</v>
+        <v>0.1763598244906265</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N6">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O6">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P6">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q6">
-        <v>0.4462906337006667</v>
+        <v>1053.252020722766</v>
       </c>
       <c r="R6">
-        <v>2.677743802204</v>
+        <v>6319.512124336593</v>
       </c>
       <c r="S6">
-        <v>0.0002002532392620361</v>
+        <v>0.1294357066495512</v>
       </c>
       <c r="T6">
-        <v>0.0001870025061514075</v>
+        <v>0.1267164986071699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.908374</v>
+        <v>19.1942595</v>
       </c>
       <c r="H7">
-        <v>9.816748</v>
+        <v>38.388519</v>
       </c>
       <c r="I7">
-        <v>0.06587775388176191</v>
+        <v>0.1801900926266317</v>
       </c>
       <c r="J7">
-        <v>0.0614069384453108</v>
+        <v>0.1763598244906265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N7">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O7">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P7">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q7">
-        <v>92.05686196143733</v>
+        <v>113.001660164835</v>
       </c>
       <c r="R7">
-        <v>552.341171768624</v>
+        <v>678.00996098901</v>
       </c>
       <c r="S7">
-        <v>0.04130645685125523</v>
+        <v>0.01388694201219843</v>
       </c>
       <c r="T7">
-        <v>0.03857321349649744</v>
+        <v>0.01359520269712757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,40 +921,40 @@
         <v>13.881015</v>
       </c>
       <c r="I8">
-        <v>0.06210135914656905</v>
+        <v>0.04343696924249086</v>
       </c>
       <c r="J8">
-        <v>0.08683024497149522</v>
+        <v>0.06377045619164817</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N8">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O8">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P8">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q8">
-        <v>0.3362236318274999</v>
+        <v>0.03656259350999999</v>
       </c>
       <c r="R8">
-        <v>2.017341790964999</v>
+        <v>0.21937556106</v>
       </c>
       <c r="S8">
-        <v>0.0001508655264207542</v>
+        <v>4.493231472425366E-06</v>
       </c>
       <c r="T8">
-        <v>0.0001408827724160609</v>
+        <v>4.398836877051617E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>13.881015</v>
       </c>
       <c r="I9">
-        <v>0.06210135914656905</v>
+        <v>0.04343696924249086</v>
       </c>
       <c r="J9">
-        <v>0.08683024497149522</v>
+        <v>0.06377045619164817</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N9">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O9">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P9">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q9">
         <v>0.149867149615</v>
@@ -1013,10 +1013,10 @@
         <v>1.348804346535</v>
       </c>
       <c r="S9">
-        <v>6.724627384741621E-05</v>
+        <v>1.841739681701259E-05</v>
       </c>
       <c r="T9">
-        <v>9.419489381409485E-05</v>
+        <v>2.704572136840222E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>13.881015</v>
       </c>
       <c r="I10">
-        <v>0.06210135914656905</v>
+        <v>0.04343696924249086</v>
       </c>
       <c r="J10">
-        <v>0.08683024497149522</v>
+        <v>0.06377045619164817</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N10">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O10">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P10">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q10">
-        <v>50.29685225008</v>
+        <v>71.89939160138998</v>
       </c>
       <c r="R10">
-        <v>452.67167025072</v>
+        <v>647.0945244125099</v>
       </c>
       <c r="S10">
-        <v>0.02256849422145402</v>
+        <v>0.008835823123522223</v>
       </c>
       <c r="T10">
-        <v>0.03161270945000554</v>
+        <v>0.01297529790086968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>13.881015</v>
       </c>
       <c r="I11">
-        <v>0.06210135914656905</v>
+        <v>0.04343696924249086</v>
       </c>
       <c r="J11">
-        <v>0.08683024497149522</v>
+        <v>0.06377045619164817</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N11">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O11">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P11">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q11">
-        <v>0.4176126497774999</v>
+        <v>0.2327499190125</v>
       </c>
       <c r="R11">
-        <v>2.505675898664999</v>
+        <v>1.396499514075</v>
       </c>
       <c r="S11">
-        <v>0.000187385258752343</v>
+        <v>2.8602983566398E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001749859983870996</v>
+        <v>2.800208706756378E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>13.881015</v>
       </c>
       <c r="I12">
-        <v>0.06210135914656905</v>
+        <v>0.04343696924249086</v>
       </c>
       <c r="J12">
-        <v>0.08683024497149522</v>
+        <v>0.06377045619164817</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N12">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O12">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P12">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q12">
-        <v>0.420707344955</v>
+        <v>253.898951722745</v>
       </c>
       <c r="R12">
-        <v>3.786366104594999</v>
+        <v>2285.090565504705</v>
       </c>
       <c r="S12">
-        <v>0.000188773866728908</v>
+        <v>0.03120201963748623</v>
       </c>
       <c r="T12">
-        <v>0.0002644240835076217</v>
+        <v>0.04581978319907587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>13.881015</v>
       </c>
       <c r="I13">
-        <v>0.06210135914656905</v>
+        <v>0.04343696924249086</v>
       </c>
       <c r="J13">
-        <v>0.08683024497149522</v>
+        <v>0.06377045619164817</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N13">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O13">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P13">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q13">
-        <v>86.77976873397999</v>
+        <v>27.24039687965</v>
       </c>
       <c r="R13">
-        <v>781.0179186058199</v>
+        <v>245.16357191685</v>
       </c>
       <c r="S13">
-        <v>0.03893859399936561</v>
+        <v>0.003347612869626576</v>
       </c>
       <c r="T13">
-        <v>0.0545430477733648</v>
+        <v>0.004915928446389614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1397886666666666</v>
+        <v>82.70101550000001</v>
       </c>
       <c r="H14">
-        <v>0.419366</v>
+        <v>165.402031</v>
       </c>
       <c r="I14">
-        <v>0.001876173938279014</v>
+        <v>0.7763729381308775</v>
       </c>
       <c r="J14">
-        <v>0.002623270165237633</v>
+        <v>0.7598697193177254</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.07266549999999999</v>
+        <v>0.007901999999999999</v>
       </c>
       <c r="N14">
-        <v>0.145331</v>
+        <v>0.015804</v>
       </c>
       <c r="O14">
-        <v>0.002429343391095317</v>
+        <v>0.0001034425640366732</v>
       </c>
       <c r="P14">
-        <v>0.001622508061129047</v>
+        <v>6.897922862323383E-05</v>
       </c>
       <c r="Q14">
-        <v>0.01015781335766666</v>
+        <v>0.6535034244810001</v>
       </c>
       <c r="R14">
-        <v>0.06094688014599999</v>
+        <v>2.614013697924</v>
       </c>
       <c r="S14">
-        <v>4.557870757503397E-06</v>
+        <v>8.031000736894344E-05</v>
       </c>
       <c r="T14">
-        <v>4.256276989617387E-06</v>
+        <v>5.24152270926899E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1397886666666666</v>
+        <v>82.70101550000001</v>
       </c>
       <c r="H15">
-        <v>0.419366</v>
+        <v>165.402031</v>
       </c>
       <c r="I15">
-        <v>0.001876173938279014</v>
+        <v>0.7763729381308775</v>
       </c>
       <c r="J15">
-        <v>0.002623270165237633</v>
+        <v>0.7598697193177254</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.03238966666666666</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N15">
-        <v>0.09716899999999999</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O15">
-        <v>0.001082847054743268</v>
+        <v>0.0004240028054028306</v>
       </c>
       <c r="P15">
-        <v>0.001084816630944866</v>
+        <v>0.0004241105205068976</v>
       </c>
       <c r="Q15">
-        <v>0.00452770831711111</v>
+        <v>2.678658325039834</v>
       </c>
       <c r="R15">
-        <v>0.04074937485399999</v>
+        <v>16.071949950239</v>
       </c>
       <c r="S15">
-        <v>2.031609423251509E-06</v>
+        <v>0.0003291843038063303</v>
       </c>
       <c r="T15">
-        <v>2.845767102711272E-06</v>
+        <v>0.0003222687421772707</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1397886666666666</v>
+        <v>82.70101550000001</v>
       </c>
       <c r="H16">
-        <v>0.419366</v>
+        <v>165.402031</v>
       </c>
       <c r="I16">
-        <v>0.001876173938279014</v>
+        <v>0.7763729381308775</v>
       </c>
       <c r="J16">
-        <v>0.002623270165237633</v>
+        <v>0.7598697193177254</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.87028266666667</v>
+        <v>15.539078</v>
       </c>
       <c r="N16">
-        <v>32.610848</v>
+        <v>46.617234</v>
       </c>
       <c r="O16">
-        <v>0.3634138532811947</v>
+        <v>0.2034171185884409</v>
       </c>
       <c r="P16">
-        <v>0.364074861937605</v>
+        <v>0.2034687953599588</v>
       </c>
       <c r="Q16">
-        <v>1.519542320263111</v>
+        <v>1285.097530533709</v>
       </c>
       <c r="R16">
-        <v>13.675880882368</v>
+        <v>7710.585183202254</v>
       </c>
       <c r="S16">
-        <v>0.000681827600335731</v>
+        <v>0.157927546024625</v>
       </c>
       <c r="T16">
-        <v>0.0009550667232339294</v>
+        <v>0.1546097764200876</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1397886666666666</v>
+        <v>82.70101550000001</v>
       </c>
       <c r="H17">
-        <v>0.419366</v>
+        <v>165.402031</v>
       </c>
       <c r="I17">
-        <v>0.001876173938279014</v>
+        <v>0.7763729381308775</v>
       </c>
       <c r="J17">
-        <v>0.002623270165237633</v>
+        <v>0.7598697193177254</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.09025549999999999</v>
+        <v>0.0503025</v>
       </c>
       <c r="N17">
-        <v>0.180511</v>
+        <v>0.100605</v>
       </c>
       <c r="O17">
-        <v>0.003017409946054226</v>
+        <v>0.0006584939986654968</v>
       </c>
       <c r="P17">
-        <v>0.002015265515426615</v>
+        <v>0.0004391075231359428</v>
       </c>
       <c r="Q17">
-        <v>0.01261669600433333</v>
+        <v>4.160067832188751</v>
       </c>
       <c r="R17">
-        <v>0.07570017602599999</v>
+        <v>16.640271328755</v>
       </c>
       <c r="S17">
-        <v>5.661185901890826E-06</v>
+        <v>0.0005112369204854819</v>
       </c>
       <c r="T17">
-        <v>5.28658590165088E-06</v>
+        <v>0.0003336645103556105</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1397886666666666</v>
+        <v>82.70101550000001</v>
       </c>
       <c r="H18">
-        <v>0.419366</v>
+        <v>165.402031</v>
       </c>
       <c r="I18">
-        <v>0.001876173938279014</v>
+        <v>0.7763729381308775</v>
       </c>
       <c r="J18">
-        <v>0.002623270165237633</v>
+        <v>0.7598697193177254</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.09092433333333333</v>
+        <v>54.87328233333333</v>
       </c>
       <c r="N18">
-        <v>0.272773</v>
+        <v>164.619847</v>
       </c>
       <c r="O18">
-        <v>0.003039770293648031</v>
+        <v>0.7183286537165633</v>
       </c>
       <c r="P18">
-        <v>0.003045299291674547</v>
+        <v>0.7185111403527445</v>
       </c>
       <c r="Q18">
-        <v>0.01271019132422222</v>
+        <v>4538.076172784877</v>
       </c>
       <c r="R18">
-        <v>0.114391721918</v>
+        <v>27228.45703670926</v>
       </c>
       <c r="S18">
-        <v>5.703137803297182E-06</v>
+        <v>0.5576909274295259</v>
       </c>
       <c r="T18">
-        <v>7.988642776069135E-06</v>
+        <v>0.5459748585464989</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1397886666666666</v>
+        <v>82.70101550000001</v>
       </c>
       <c r="H19">
-        <v>0.419366</v>
+        <v>165.402031</v>
       </c>
       <c r="I19">
-        <v>0.001876173938279014</v>
+        <v>0.7763729381308775</v>
       </c>
       <c r="J19">
-        <v>0.002623270165237633</v>
+        <v>0.7598697193177254</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.75506266666667</v>
+        <v>5.887263333333333</v>
       </c>
       <c r="N19">
-        <v>56.265188</v>
+        <v>17.66179</v>
       </c>
       <c r="O19">
-        <v>0.6270167760332646</v>
+        <v>0.07706828832689087</v>
       </c>
       <c r="P19">
-        <v>0.62815724856322</v>
+        <v>0.07708786701503069</v>
       </c>
       <c r="Q19">
-        <v>2.621745203423111</v>
+        <v>486.8826561825817</v>
       </c>
       <c r="R19">
-        <v>23.595706830808</v>
+        <v>2921.29593709549</v>
       </c>
       <c r="S19">
-        <v>0.001176392534057341</v>
+        <v>0.05983373344506587</v>
       </c>
       <c r="T19">
-        <v>0.001647826169233655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>58.74972150000001</v>
-      </c>
-      <c r="H20">
-        <v>117.499443</v>
-      </c>
-      <c r="I20">
-        <v>0.7885095336254035</v>
-      </c>
-      <c r="J20">
-        <v>0.7349970747603285</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.07266549999999999</v>
-      </c>
-      <c r="N20">
-        <v>0.145331</v>
-      </c>
-      <c r="O20">
-        <v>0.002429343391095317</v>
-      </c>
-      <c r="P20">
-        <v>0.001622508061129047</v>
-      </c>
-      <c r="Q20">
-        <v>4.26907788765825</v>
-      </c>
-      <c r="R20">
-        <v>17.076311550633</v>
-      </c>
-      <c r="S20">
-        <v>0.001915560424328525</v>
-      </c>
-      <c r="T20">
-        <v>0.001192538678704902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>58.74972150000001</v>
-      </c>
-      <c r="H21">
-        <v>117.499443</v>
-      </c>
-      <c r="I21">
-        <v>0.7885095336254035</v>
-      </c>
-      <c r="J21">
-        <v>0.7349970747603285</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.03238966666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.09716899999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.001082847054743268</v>
-      </c>
-      <c r="P21">
-        <v>0.001084816630944866</v>
-      </c>
-      <c r="Q21">
-        <v>1.9028838961445</v>
-      </c>
-      <c r="R21">
-        <v>11.417303376867</v>
-      </c>
-      <c r="S21">
-        <v>0.0008538352261232561</v>
-      </c>
-      <c r="T21">
-        <v>0.0007973370503958315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>58.74972150000001</v>
-      </c>
-      <c r="H22">
-        <v>117.499443</v>
-      </c>
-      <c r="I22">
-        <v>0.7885095336254035</v>
-      </c>
-      <c r="J22">
-        <v>0.7349970747603285</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>10.87028266666667</v>
-      </c>
-      <c r="N22">
-        <v>32.610848</v>
-      </c>
-      <c r="O22">
-        <v>0.3634138532811947</v>
-      </c>
-      <c r="P22">
-        <v>0.364074861937605</v>
-      </c>
-      <c r="Q22">
-        <v>638.6260792929442</v>
-      </c>
-      <c r="R22">
-        <v>3831.756475757665</v>
-      </c>
-      <c r="S22">
-        <v>0.2865552879637657</v>
-      </c>
-      <c r="T22">
-        <v>0.2675939585179101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>58.74972150000001</v>
-      </c>
-      <c r="H23">
-        <v>117.499443</v>
-      </c>
-      <c r="I23">
-        <v>0.7885095336254035</v>
-      </c>
-      <c r="J23">
-        <v>0.7349970747603285</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-      <c r="M23">
-        <v>0.09025549999999999</v>
-      </c>
-      <c r="N23">
-        <v>0.180511</v>
-      </c>
-      <c r="O23">
-        <v>0.003017409946054226</v>
-      </c>
-      <c r="P23">
-        <v>0.002015265515426615</v>
-      </c>
-      <c r="Q23">
-        <v>5.30248548884325</v>
-      </c>
-      <c r="R23">
-        <v>21.209941955373</v>
-      </c>
-      <c r="S23">
-        <v>0.002379256509319872</v>
-      </c>
-      <c r="T23">
-        <v>0.001481214258703928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>58.74972150000001</v>
-      </c>
-      <c r="H24">
-        <v>117.499443</v>
-      </c>
-      <c r="I24">
-        <v>0.7885095336254035</v>
-      </c>
-      <c r="J24">
-        <v>0.7349970747603285</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.09092433333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.272773</v>
-      </c>
-      <c r="O24">
-        <v>0.003039770293648031</v>
-      </c>
-      <c r="P24">
-        <v>0.003045299291674547</v>
-      </c>
-      <c r="Q24">
-        <v>5.341779260906501</v>
-      </c>
-      <c r="R24">
-        <v>32.050675565439</v>
-      </c>
-      <c r="S24">
-        <v>0.002396887856572764</v>
-      </c>
-      <c r="T24">
-        <v>0.002238286071150492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>58.74972150000001</v>
-      </c>
-      <c r="H25">
-        <v>117.499443</v>
-      </c>
-      <c r="I25">
-        <v>0.7885095336254035</v>
-      </c>
-      <c r="J25">
-        <v>0.7349970747603285</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>18.75506266666667</v>
-      </c>
-      <c r="N25">
-        <v>56.265188</v>
-      </c>
-      <c r="O25">
-        <v>0.6270167760332646</v>
-      </c>
-      <c r="P25">
-        <v>0.62815724856322</v>
-      </c>
-      <c r="Q25">
-        <v>1101.854708381714</v>
-      </c>
-      <c r="R25">
-        <v>6611.128250290285</v>
-      </c>
-      <c r="S25">
-        <v>0.4944087056452935</v>
-      </c>
-      <c r="T25">
-        <v>0.4616937401834633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>6.082417333333333</v>
-      </c>
-      <c r="H26">
-        <v>18.247252</v>
-      </c>
-      <c r="I26">
-        <v>0.08163517940798641</v>
-      </c>
-      <c r="J26">
-        <v>0.1141424716576278</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.07266549999999999</v>
-      </c>
-      <c r="N26">
-        <v>0.145331</v>
-      </c>
-      <c r="O26">
-        <v>0.002429343391095317</v>
-      </c>
-      <c r="P26">
-        <v>0.001622508061129047</v>
-      </c>
-      <c r="Q26">
-        <v>0.4419818967353333</v>
-      </c>
-      <c r="R26">
-        <v>2.651891380412</v>
-      </c>
-      <c r="S26">
-        <v>0.0001983198835756723</v>
-      </c>
-      <c r="T26">
-        <v>0.0001851970803816949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>6.082417333333333</v>
-      </c>
-      <c r="H27">
-        <v>18.247252</v>
-      </c>
-      <c r="I27">
-        <v>0.08163517940798641</v>
-      </c>
-      <c r="J27">
-        <v>0.1141424716576278</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.03238966666666666</v>
-      </c>
-      <c r="N27">
-        <v>0.09716899999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.001082847054743268</v>
-      </c>
-      <c r="P27">
-        <v>0.001084816630944866</v>
-      </c>
-      <c r="Q27">
-        <v>0.1970074699542222</v>
-      </c>
-      <c r="R27">
-        <v>1.773067229588</v>
-      </c>
-      <c r="S27">
-        <v>8.839841358537637E-05</v>
-      </c>
-      <c r="T27">
-        <v>0.0001238236515513477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6.082417333333333</v>
-      </c>
-      <c r="H28">
-        <v>18.247252</v>
-      </c>
-      <c r="I28">
-        <v>0.08163517940798641</v>
-      </c>
-      <c r="J28">
-        <v>0.1141424716576278</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>10.87028266666667</v>
-      </c>
-      <c r="N28">
-        <v>32.610848</v>
-      </c>
-      <c r="O28">
-        <v>0.3634138532811947</v>
-      </c>
-      <c r="P28">
-        <v>0.364074861937605</v>
-      </c>
-      <c r="Q28">
-        <v>66.11759570996622</v>
-      </c>
-      <c r="R28">
-        <v>595.0583613896961</v>
-      </c>
-      <c r="S28">
-        <v>0.02966735511195798</v>
-      </c>
-      <c r="T28">
-        <v>0.04155640460996782</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>6.082417333333333</v>
-      </c>
-      <c r="H29">
-        <v>18.247252</v>
-      </c>
-      <c r="I29">
-        <v>0.08163517940798641</v>
-      </c>
-      <c r="J29">
-        <v>0.1141424716576278</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
-        <v>0.09025549999999999</v>
-      </c>
-      <c r="N29">
-        <v>0.180511</v>
-      </c>
-      <c r="O29">
-        <v>0.003017409946054226</v>
-      </c>
-      <c r="P29">
-        <v>0.002015265515426615</v>
-      </c>
-      <c r="Q29">
-        <v>0.5489716176286665</v>
-      </c>
-      <c r="R29">
-        <v>3.293829705772</v>
-      </c>
-      <c r="S29">
-        <v>0.0002463268022935793</v>
-      </c>
-      <c r="T29">
-        <v>0.0002300273869771771</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>6.082417333333333</v>
-      </c>
-      <c r="H30">
-        <v>18.247252</v>
-      </c>
-      <c r="I30">
-        <v>0.08163517940798641</v>
-      </c>
-      <c r="J30">
-        <v>0.1141424716576278</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.09092433333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.272773</v>
-      </c>
-      <c r="O30">
-        <v>0.003039770293648031</v>
-      </c>
-      <c r="P30">
-        <v>0.003045299291674547</v>
-      </c>
-      <c r="Q30">
-        <v>0.5530397410884443</v>
-      </c>
-      <c r="R30">
-        <v>4.977357669796</v>
-      </c>
-      <c r="S30">
-        <v>0.0002481521932810245</v>
-      </c>
-      <c r="T30">
-        <v>0.0003475979880889559</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>6.082417333333333</v>
-      </c>
-      <c r="H31">
-        <v>18.247252</v>
-      </c>
-      <c r="I31">
-        <v>0.08163517940798641</v>
-      </c>
-      <c r="J31">
-        <v>0.1141424716576278</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>18.75506266666667</v>
-      </c>
-      <c r="N31">
-        <v>56.265188</v>
-      </c>
-      <c r="O31">
-        <v>0.6270167760332646</v>
-      </c>
-      <c r="P31">
-        <v>0.62815724856322</v>
-      </c>
-      <c r="Q31">
-        <v>114.0761182514862</v>
-      </c>
-      <c r="R31">
-        <v>1026.685064263376</v>
-      </c>
-      <c r="S31">
-        <v>0.05118662700329279</v>
-      </c>
-      <c r="T31">
-        <v>0.0716994209406608</v>
+        <v>0.05857673587151351</v>
       </c>
     </row>
   </sheetData>
